--- a/data/trans_orig/POLIPATOLOGIA_5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>74535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59595</v>
+        <v>59641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93132</v>
+        <v>91709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07224351611218484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05776221110631191</v>
+        <v>0.05780701712309212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09026826163505278</v>
+        <v>0.08888884646875563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>167</v>
@@ -765,19 +765,19 @@
         <v>172670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148124</v>
+        <v>148778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197283</v>
+        <v>196774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.131296935196625</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1126319832951331</v>
+        <v>0.1131293216678105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1500124425773283</v>
+        <v>0.1496249551448327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>247</v>
@@ -786,19 +786,19 @@
         <v>247205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>217308</v>
+        <v>217884</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276798</v>
+        <v>276314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1053356942085578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09259626611553291</v>
+        <v>0.09284161693738587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1179451502735425</v>
+        <v>0.1177391917959822</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>957188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>938591</v>
+        <v>940014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>972128</v>
+        <v>972082</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9277564838878152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9097317383649473</v>
+        <v>0.9111111535312444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.942237788893688</v>
+        <v>0.9421929828769078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1124</v>
@@ -836,19 +836,19 @@
         <v>1142443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1117830</v>
+        <v>1118339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1166989</v>
+        <v>1166335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.868703064803375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8499875574226718</v>
+        <v>0.8503750448551672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8873680167048672</v>
+        <v>0.8868706783321895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2082</v>
@@ -857,19 +857,19 @@
         <v>2099630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2070037</v>
+        <v>2070521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2129527</v>
+        <v>2128951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8946643057914422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8820548497264575</v>
+        <v>0.8822608082040178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9074037338844669</v>
+        <v>0.9071583830626139</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16951</v>
+        <v>17110</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37446</v>
+        <v>37715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01508913508312612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01000983412283289</v>
+        <v>0.0101038376525491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02211272586926816</v>
+        <v>0.02227171072408679</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>45474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32995</v>
+        <v>33609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60122</v>
+        <v>61689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02864208408138774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02078195133285121</v>
+        <v>0.02116892469302372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03786794329309511</v>
+        <v>0.03885512256393574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1003,19 +1003,19 @@
         <v>71026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55182</v>
+        <v>54666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90356</v>
+        <v>88702</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02164722422338619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01681817320414114</v>
+        <v>0.0166608104237073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02753838066976151</v>
+        <v>0.02703419256358066</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1667861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1655967</v>
+        <v>1655698</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1676462</v>
+        <v>1676303</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9849108649168739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9778872741307317</v>
+        <v>0.9777282892759132</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989990165877167</v>
+        <v>0.9898961623474508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1511</v>
@@ -1053,19 +1053,19 @@
         <v>1542199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1527551</v>
+        <v>1525984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1554678</v>
+        <v>1554064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9713579159186123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9621320567069049</v>
+        <v>0.9611448774360644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9792180486671488</v>
+        <v>0.9788310753069763</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3135</v>
@@ -1074,19 +1074,19 @@
         <v>3210060</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3190730</v>
+        <v>3192384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3225904</v>
+        <v>3226420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9783527757766138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9724616193302386</v>
+        <v>0.9729658074364195</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9831818267958589</v>
+        <v>0.9833391895762927</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6216</v>
+        <v>5839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20889</v>
+        <v>20391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02130927211282128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0112729439677048</v>
+        <v>0.0105894882474529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03788372758490396</v>
+        <v>0.03697947006684145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>8404</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3987</v>
+        <v>3999</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15071</v>
+        <v>15993</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01764090163455439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008369793729561878</v>
+        <v>0.008393550538960494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03163448551734643</v>
+        <v>0.03357007247790181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1220,19 +1220,19 @@
         <v>20154</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12755</v>
+        <v>12473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30189</v>
+        <v>31011</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01960892077637358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01241001392160914</v>
+        <v>0.01213552867271221</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02937173415779392</v>
+        <v>0.03017162432996591</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530519</v>
+        <v>531017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545192</v>
+        <v>545569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9786907278871787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9621162724150958</v>
+        <v>0.9630205299331586</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9887270560322952</v>
+        <v>0.9894105117525472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -1270,19 +1270,19 @@
         <v>468008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>461341</v>
+        <v>460419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472425</v>
+        <v>472413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9823590983654457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9683655144826534</v>
+        <v>0.9664299275220981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916302062704379</v>
+        <v>0.9916064494610395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>960</v>
@@ -1291,19 +1291,19 @@
         <v>1007666</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>997631</v>
+        <v>996809</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1015065</v>
+        <v>1015347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9803910792236264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9706282658422063</v>
+        <v>0.9698283756700341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9875899860783909</v>
+        <v>0.9878644713272878</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>111838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03413277547467264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1416,19 +1416,19 @@
         <v>226549</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06704220913826139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>334</v>
@@ -1437,19 +1437,19 @@
         <v>338386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05084127958350297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3164705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3142336</v>
+        <v>3145104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3183762</v>
+        <v>3182916</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9658672245253274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9590401375536898</v>
+        <v>0.9598847291182853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9716831501878214</v>
+        <v>0.9714249392423752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3079</v>
@@ -1487,19 +1487,19 @@
         <v>3152648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3121412</v>
+        <v>3120127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3184059</v>
+        <v>3180407</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9329577908617386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9237140365327977</v>
+        <v>0.9233339519868029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9422531785775206</v>
+        <v>0.9411725449832071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6177</v>
@@ -1508,19 +1508,19 @@
         <v>6317355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6279476</v>
+        <v>6282333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6352556</v>
+        <v>6351656</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9491587204164971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9434675454329475</v>
+        <v>0.9438969138112202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9544476425035028</v>
+        <v>0.9543123025656122</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>95648</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77625</v>
+        <v>77084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117062</v>
+        <v>115049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09813643828815122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0796449538917342</v>
+        <v>0.07908936239718616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.120107955191567</v>
+        <v>0.1180422658257806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>250</v>
@@ -1872,19 +1872,19 @@
         <v>267506</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240855</v>
+        <v>238407</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>301141</v>
+        <v>300388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1999604518534089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1800383684010177</v>
+        <v>0.1782083988087681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2251023447118975</v>
+        <v>0.2245390508720234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>337</v>
@@ -1893,19 +1893,19 @@
         <v>363154</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>326336</v>
+        <v>332395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>400592</v>
+        <v>402607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.157043843361979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1411219597039958</v>
+        <v>0.1437419344957659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1732336798917507</v>
+        <v>0.1741047247806217</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>878995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>857581</v>
+        <v>859594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>897018</v>
+        <v>897559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9018635617118488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8798920448084327</v>
+        <v>0.8819577341742194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9203550461082658</v>
+        <v>0.9209106376028138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>997</v>
@@ -1943,19 +1943,19 @@
         <v>1070291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1036656</v>
+        <v>1037409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1096942</v>
+        <v>1099390</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8000395481465911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7748976552881026</v>
+        <v>0.7754609491279767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8199616315989823</v>
+        <v>0.821791601191232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1818</v>
@@ -1964,19 +1964,19 @@
         <v>1949286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1911848</v>
+        <v>1909833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1986104</v>
+        <v>1980045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.842956156638021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8267663201082491</v>
+        <v>0.8258952752193782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8588780402960041</v>
+        <v>0.8562580655042338</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>27995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19662</v>
+        <v>18994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40183</v>
+        <v>39448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01425456410851004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01001142450925893</v>
+        <v>0.009671273660436826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02046035308964083</v>
+        <v>0.02008611138646527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -2089,19 +2089,19 @@
         <v>67930</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52190</v>
+        <v>52809</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88086</v>
+        <v>88944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03864495771674432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02969023216601584</v>
+        <v>0.0300427428932015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05011164133478067</v>
+        <v>0.05059970236367446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -2110,19 +2110,19 @@
         <v>95926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75177</v>
+        <v>79183</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117943</v>
+        <v>120193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02577424780422908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02019929004278797</v>
+        <v>0.0212758112618188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0316900160095815</v>
+        <v>0.03229471876338366</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1935962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1923774</v>
+        <v>1924509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1944295</v>
+        <v>1944963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.98574543589149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9795396469103591</v>
+        <v>0.9799138886135348</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989988575490741</v>
+        <v>0.9903287263395633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1576</v>
@@ -2160,19 +2160,19 @@
         <v>1689873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1669717</v>
+        <v>1668859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1705613</v>
+        <v>1704994</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9613550422832556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9498883586652194</v>
+        <v>0.9494002976363256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9703097678339841</v>
+        <v>0.9699572571067986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3405</v>
@@ -2181,19 +2181,19 @@
         <v>3625834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3603817</v>
+        <v>3601567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3646583</v>
+        <v>3642577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9742257521957709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9683099839904186</v>
+        <v>0.9677052812366164</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9798007099572124</v>
+        <v>0.9787241887381813</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>6208</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16921</v>
+        <v>16553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0129019857251307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004167729118520041</v>
+        <v>0.00411188902736049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0351665494661786</v>
+        <v>0.03439981939905433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2306,19 +2306,19 @@
         <v>15570</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8722</v>
+        <v>8816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25065</v>
+        <v>26808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03394834769730156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01901774174166269</v>
+        <v>0.0192219551921269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05465273008574655</v>
+        <v>0.05845297226482992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2327,19 +2327,19 @@
         <v>21778</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13151</v>
+        <v>13217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34020</v>
+        <v>34333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02317266803905764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01399275387600234</v>
+        <v>0.01406352192009844</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03619820978265189</v>
+        <v>0.03653151958805426</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>474973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464260</v>
+        <v>464628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479176</v>
+        <v>479202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9870980142748693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648334505338215</v>
+        <v>0.9656001806009457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.99583227088148</v>
+        <v>0.9958881109726395</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>398</v>
@@ -2377,19 +2377,19 @@
         <v>443061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>433566</v>
+        <v>431823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449909</v>
+        <v>449815</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9660516523026984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9453472699142537</v>
+        <v>0.9415470277351697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9809822582583374</v>
+        <v>0.980778044807873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -2398,19 +2398,19 @@
         <v>918035</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>905793</v>
+        <v>905480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>926662</v>
+        <v>926596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9768273319609424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9638017902173478</v>
+        <v>0.9634684804119458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860072461239976</v>
+        <v>0.9859364780799017</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>129852</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106874</v>
+        <v>108552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154769</v>
+        <v>154174</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03797071042736659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03125163568611294</v>
+        <v>0.03174239972324636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04525691516134382</v>
+        <v>0.04508304848030791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>323</v>
@@ -2523,19 +2523,19 @@
         <v>351006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>313741</v>
+        <v>317667</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>386986</v>
+        <v>386659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09875735396186103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08827267821195087</v>
+        <v>0.08937713014051643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1088803932664483</v>
+        <v>0.1087884785226846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>441</v>
@@ -2544,19 +2544,19 @@
         <v>480858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>437074</v>
+        <v>439029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>524997</v>
+        <v>526497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06894996961340974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06267177374456899</v>
+        <v>0.06295212055958696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07527910946223723</v>
+        <v>0.07549410162994891</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3289930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3265013</v>
+        <v>3265608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3312908</v>
+        <v>3311230</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9620292895726335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9547430848386562</v>
+        <v>0.9549169515196921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9687483643138871</v>
+        <v>0.9682576002767536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2971</v>
@@ -2594,19 +2594,19 @@
         <v>3203224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3167244</v>
+        <v>3167571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3240489</v>
+        <v>3236563</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.901242646038139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8911196067335517</v>
+        <v>0.8912115214773155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9117273217880493</v>
+        <v>0.9106228698594838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6055</v>
@@ -2615,19 +2615,19 @@
         <v>6493154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6449015</v>
+        <v>6447515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6536938</v>
+        <v>6534983</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9310500303865903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9247208905377629</v>
+        <v>0.9245058983700511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9373282262554311</v>
+        <v>0.9370478794404131</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>69931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56920</v>
+        <v>55108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87602</v>
+        <v>84664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09270437039311602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0754561622599302</v>
+        <v>0.07305417018451252</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1161291489840067</v>
+        <v>0.1122349768861589</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -2979,19 +2979,19 @@
         <v>211081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184736</v>
+        <v>184195</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239568</v>
+        <v>236498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2122144341347615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1857279785204492</v>
+        <v>0.1851838799657475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2408546102607802</v>
+        <v>0.2377673730220535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -3000,19 +3000,19 @@
         <v>281012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250849</v>
+        <v>248771</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312528</v>
+        <v>314543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1606697381749248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1434235956337833</v>
+        <v>0.142235773083321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1786887060390378</v>
+        <v>0.1798411398143416</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>684416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666745</v>
+        <v>669683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>697427</v>
+        <v>699239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.907295629606884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8838708510159934</v>
+        <v>0.8877650231138412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9245438377400698</v>
+        <v>0.9269458298154875</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>711</v>
@@ -3050,19 +3050,19 @@
         <v>783579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>755092</v>
+        <v>758162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>809924</v>
+        <v>810465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7877855658652385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.75914538973922</v>
+        <v>0.7622326269779466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8142720214795512</v>
+        <v>0.8148161200342525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1397</v>
@@ -3071,19 +3071,19 @@
         <v>1467995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1436479</v>
+        <v>1434464</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1498158</v>
+        <v>1500236</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8393302618250752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8213112939609625</v>
+        <v>0.8201588601856583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8565764043662171</v>
+        <v>0.857764226916679</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>38616</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27372</v>
+        <v>27966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52181</v>
+        <v>51950</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0185977963850395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01318268687158136</v>
+        <v>0.01346837411294882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02513069349630431</v>
+        <v>0.02501933265797569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -3196,19 +3196,19 @@
         <v>117735</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97455</v>
+        <v>95071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141906</v>
+        <v>140386</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05921404135155936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04901432344680113</v>
+        <v>0.04781506329750155</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07137037781925314</v>
+        <v>0.07060587293592907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -3217,19 +3217,19 @@
         <v>156351</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133581</v>
+        <v>133335</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185544</v>
+        <v>185547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03846582598562999</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03286384812519043</v>
+        <v>0.03280326041633645</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04564781369823115</v>
+        <v>0.04564856145297606</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2037769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2024204</v>
+        <v>2024435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2049013</v>
+        <v>2048419</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9814022036149606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9748693065036955</v>
+        <v>0.9749806673420243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868173131284186</v>
+        <v>0.9865316258870512</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1802</v>
@@ -3267,19 +3267,19 @@
         <v>1870565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1846394</v>
+        <v>1847914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1890845</v>
+        <v>1893229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9407859586484406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9286296221807467</v>
+        <v>0.9293941270640709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9509856765531988</v>
+        <v>0.9521849367024985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3718</v>
@@ -3288,19 +3288,19 @@
         <v>3908334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3879141</v>
+        <v>3879138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3931104</v>
+        <v>3931350</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.96153417401437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9543521863017689</v>
+        <v>0.9543514385470238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9671361518748096</v>
+        <v>0.9671967395836635</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>10937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4824</v>
+        <v>5380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20305</v>
+        <v>19418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01999798679131706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008820581933057807</v>
+        <v>0.009837256521772371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03712821644007899</v>
+        <v>0.03550561472761764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3413,19 +3413,19 @@
         <v>17344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9881</v>
+        <v>9864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27015</v>
+        <v>27846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03158484133094409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01799421466867093</v>
+        <v>0.0179631761516934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04919600038269206</v>
+        <v>0.0507090454073086</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3434,19 +3434,19 @@
         <v>28281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18735</v>
+        <v>18368</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41975</v>
+        <v>41874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02580332911418468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0170936681447118</v>
+        <v>0.01675876173642969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03829710763962978</v>
+        <v>0.03820532449377254</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>535949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526581</v>
+        <v>527468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542062</v>
+        <v>541506</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.980002013208683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9628717835599209</v>
+        <v>0.964494385272382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911794180669421</v>
+        <v>0.9901627434782276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3484,19 +3484,19 @@
         <v>531796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522125</v>
+        <v>521294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539259</v>
+        <v>539276</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9684151586690559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9508039996173079</v>
+        <v>0.9492909545926913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.982005785331329</v>
+        <v>0.9820368238483065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1003</v>
@@ -3505,19 +3505,19 @@
         <v>1067746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054052</v>
+        <v>1054153</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1077292</v>
+        <v>1077659</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9741966708858153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9617028923603702</v>
+        <v>0.9617946755062274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9829063318552882</v>
+        <v>0.9832412382635703</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>119484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100625</v>
+        <v>99892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140400</v>
+        <v>141803</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03537524200291785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02979157782992566</v>
+        <v>0.02957475027370543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04156774569406527</v>
+        <v>0.04198307695465731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -3630,19 +3630,19 @@
         <v>346161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>310947</v>
+        <v>309854</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383191</v>
+        <v>385316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0980042986855298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08803451409003295</v>
+        <v>0.08772526407890874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1084881445322645</v>
+        <v>0.109089743566058</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>423</v>
@@ -3651,19 +3651,19 @@
         <v>465645</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>421104</v>
+        <v>420356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510622</v>
+        <v>505701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06738987862603055</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06094374959922351</v>
+        <v>0.06083547140296625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0738991190856936</v>
+        <v>0.07318690092701866</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3258134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3237218</v>
+        <v>3235815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3276993</v>
+        <v>3277726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9646247579970821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584322543059347</v>
+        <v>0.9580169230453427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9702084221700744</v>
+        <v>0.9704252497262947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3024</v>
@@ -3701,19 +3701,19 @@
         <v>3185939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3148909</v>
+        <v>3146784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3221153</v>
+        <v>3222246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9019957013144702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8915118554677354</v>
+        <v>0.8909102564339421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.911965485909967</v>
+        <v>0.9122747359210921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6118</v>
@@ -3722,19 +3722,19 @@
         <v>6444073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6399096</v>
+        <v>6404017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6488614</v>
+        <v>6489362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9326101213739695</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9261008809143064</v>
+        <v>0.9268130990729814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9390562504007767</v>
+        <v>0.939164528597034</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>120945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104745</v>
+        <v>104127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139489</v>
+        <v>139776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2090558338849299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.181054803501437</v>
+        <v>0.1799854736798216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2411096854654158</v>
+        <v>0.2416059212304939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>569</v>
@@ -4086,19 +4086,19 @@
         <v>306519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>284008</v>
+        <v>286850</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328162</v>
+        <v>330906</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.372876341373251</v>
+        <v>0.3728763413732511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3454920565745641</v>
+        <v>0.3489494557541885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3992058003602572</v>
+        <v>0.4025433459081662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>748</v>
@@ -4107,19 +4107,19 @@
         <v>427463</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400854</v>
+        <v>398391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>457334</v>
+        <v>457108</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3052073449294336</v>
+        <v>0.3052073449294335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2862085353243257</v>
+        <v>0.28444957696343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3265349119241621</v>
+        <v>0.3263736297105193</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>457584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439040</v>
+        <v>438753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>473784</v>
+        <v>474402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7909441661150702</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7588903145345842</v>
+        <v>0.7583940787695054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.818945196498563</v>
+        <v>0.8200145263201779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>858</v>
@@ -4157,19 +4157,19 @@
         <v>515519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>493876</v>
+        <v>491132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>538030</v>
+        <v>535188</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.627123658626749</v>
+        <v>0.6271236586267489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6007941996397427</v>
+        <v>0.5974566540918338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6545079434254357</v>
+        <v>0.6510505442458115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1370</v>
@@ -4178,19 +4178,19 @@
         <v>973104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>943233</v>
+        <v>943459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>999713</v>
+        <v>1002176</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6947926550705665</v>
+        <v>0.6947926550705663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6734650880758377</v>
+        <v>0.6736263702894807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7137914646756742</v>
+        <v>0.7155504230365703</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>145337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124725</v>
+        <v>124319</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170575</v>
+        <v>168994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06515681692734078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05591620742472529</v>
+        <v>0.0557340992496896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07647156878949644</v>
+        <v>0.0757629038996967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>395</v>
@@ -4303,19 +4303,19 @@
         <v>241879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219342</v>
+        <v>217484</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267482</v>
+        <v>265777</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1113934457827686</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1010145084348455</v>
+        <v>0.1001586424203182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1231845839170068</v>
+        <v>0.1223993515968853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -4324,19 +4324,19 @@
         <v>387216</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356032</v>
+        <v>356476</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>423108</v>
+        <v>424315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08796435871258704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08088026169728785</v>
+        <v>0.08098126023997078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09611810579536836</v>
+        <v>0.09639234923914368</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2085229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2059991</v>
+        <v>2061572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2105841</v>
+        <v>2106247</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9348431830726592</v>
+        <v>0.9348431830726593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9235284312105035</v>
+        <v>0.9242370961003032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9440837925752743</v>
+        <v>0.9442659007503105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2526</v>
@@ -4374,19 +4374,19 @@
         <v>1929513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1903910</v>
+        <v>1905615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1952050</v>
+        <v>1953908</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8886065542172314</v>
+        <v>0.8886065542172312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8768154160829932</v>
+        <v>0.8776006484031147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8989854915651545</v>
+        <v>0.8998413575796818</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4344</v>
@@ -4395,19 +4395,19 @@
         <v>4014743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3978851</v>
+        <v>3977644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4045927</v>
+        <v>4045483</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.912035641287413</v>
+        <v>0.9120356412874129</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9038818942046317</v>
+        <v>0.9036076507608563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9191197383027122</v>
+        <v>0.9190187397600291</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>29074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20509</v>
+        <v>21036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40253</v>
+        <v>41007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04085854020573647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02882107846895223</v>
+        <v>0.02956167787556948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05656770717444481</v>
+        <v>0.05762803208007057</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -4520,19 +4520,19 @@
         <v>62645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51508</v>
+        <v>50391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76100</v>
+        <v>76032</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08524615539301024</v>
+        <v>0.08524615539301023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07009096918095271</v>
+        <v>0.06857131662763553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1035547145343696</v>
+        <v>0.1034618140790361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -4541,19 +4541,19 @@
         <v>91720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77806</v>
+        <v>76523</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107891</v>
+        <v>109475</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06340970146417794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05379028199643889</v>
+        <v>0.05290356446111943</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07458918199195733</v>
+        <v>0.0756842282541824</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>682513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671334</v>
+        <v>670580</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>691078</v>
+        <v>690551</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9591414597942637</v>
+        <v>0.9591414597942636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9434322928255544</v>
+        <v>0.9423719679199291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9711789215310473</v>
+        <v>0.9704383221244305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>906</v>
@@ -4591,19 +4591,19 @@
         <v>672232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>658777</v>
+        <v>658845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683369</v>
+        <v>684486</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9147538446069897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8964452854656304</v>
+        <v>0.8965381859209638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9299090308190474</v>
+        <v>0.9314286833723644</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1550</v>
@@ -4612,19 +4612,19 @@
         <v>1354744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1338573</v>
+        <v>1336989</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1368658</v>
+        <v>1369941</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9365902985358222</v>
+        <v>0.936590298535822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9254108180080427</v>
+        <v>0.9243157717458176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9462097180035612</v>
+        <v>0.9470964355388805</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>295356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>268405</v>
+        <v>269251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331155</v>
+        <v>330211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08389167014799949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07623672505675638</v>
+        <v>0.07647696108482191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09405986373367627</v>
+        <v>0.09379161216040466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1062</v>
@@ -4737,19 +4737,19 @@
         <v>611043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>573095</v>
+        <v>576531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>647397</v>
+        <v>645380</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1638928181532153</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1537145346841829</v>
+        <v>0.1546361932512738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.173643780911108</v>
+        <v>0.1731027317223131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1452</v>
@@ -4758,19 +4758,19 @@
         <v>906399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>862960</v>
+        <v>857885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>958351</v>
+        <v>957202</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1250379345571367</v>
+        <v>0.1250379345571368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1190456030809129</v>
+        <v>0.118345468558075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1322048297415857</v>
+        <v>0.1320462460487144</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3225327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3189528</v>
+        <v>3190472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3252278</v>
+        <v>3251432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9161083298520004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9059401362663236</v>
+        <v>0.9062083878395952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9237632749432435</v>
+        <v>0.923523038915178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4290</v>
@@ -4808,19 +4808,19 @@
         <v>3117264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3080910</v>
+        <v>3082927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3155212</v>
+        <v>3151776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8361071818467846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.826356219088892</v>
+        <v>0.8268972682776869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8462854653158172</v>
+        <v>0.8453638067487262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7264</v>
@@ -4829,19 +4829,19 @@
         <v>6342591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6290639</v>
+        <v>6291788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6386030</v>
+        <v>6391105</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8749620654428631</v>
+        <v>0.8749620654428635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8677951702584144</v>
+        <v>0.8679537539512856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8809543969190865</v>
+        <v>0.881654531441925</v>
       </c>
     </row>
     <row r="15">
